--- a/Data Dictionaries (Upload Here)/DOL/DOL_Data_Dictionary.xlsx
+++ b/Data Dictionaries (Upload Here)/DOL/DOL_Data_Dictionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\opm-fs102\UserRedirections\WonderlyC\Documents\Data-Dictionaries\Data Dictionaries (Upload Here)\DOL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{818C4A10-1D2A-426D-9D89-A9340873E1A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F4E81F8-653E-4432-861E-EB1F80423275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{A75861AE-A63D-4D3B-B992-C6E1A8020BB8}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="18000" windowHeight="9300" xr2:uid="{A75861AE-A63D-4D3B-B992-C6E1A8020BB8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,9 +39,6 @@
     <t>Agency</t>
   </si>
   <si>
-    <t>Source</t>
-  </si>
-  <si>
     <t>Data Category</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Best Chance</t>
+  </si>
+  <si>
+    <t>Program</t>
   </si>
 </sst>
 </file>
@@ -550,7 +550,7 @@
   <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -569,753 +569,753 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
-        <v>20</v>
-      </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
       <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
         <v>21</v>
       </c>
-      <c r="E7" t="s">
-        <v>22</v>
-      </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
         <v>23</v>
       </c>
-      <c r="E8" t="s">
-        <v>24</v>
-      </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>26</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>27</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>28</v>
-      </c>
-      <c r="F9" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
-      </c>
-      <c r="E11" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" t="s">
         <v>36</v>
-      </c>
-      <c r="E13" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="D15" t="s">
-        <v>41</v>
-      </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
         <v>42</v>
-      </c>
-      <c r="E16" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" t="s">
         <v>44</v>
-      </c>
-      <c r="E17" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
         <v>46</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
         <v>48</v>
-      </c>
-      <c r="E19" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" t="s">
         <v>50</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" t="s">
-        <v>28</v>
-      </c>
-      <c r="F20" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
         <v>50</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>30</v>
-      </c>
-      <c r="E21" t="s">
-        <v>31</v>
-      </c>
-      <c r="F21" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D22" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" t="s">
         <v>32</v>
       </c>
-      <c r="E22" t="s">
-        <v>33</v>
-      </c>
       <c r="F22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" t="s">
         <v>34</v>
       </c>
-      <c r="E23" t="s">
-        <v>35</v>
-      </c>
       <c r="F23" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
         <v>36</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" t="s">
         <v>38</v>
-      </c>
-      <c r="E25" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+      <c r="F26" t="s">
         <v>50</v>
-      </c>
-      <c r="C26" t="s">
-        <v>40</v>
-      </c>
-      <c r="D26" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" t="s">
-        <v>41</v>
-      </c>
-      <c r="F26" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
         <v>42</v>
       </c>
-      <c r="E27" t="s">
-        <v>43</v>
-      </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
+        <v>43</v>
+      </c>
+      <c r="E28" t="s">
         <v>44</v>
-      </c>
-      <c r="E28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E29" t="s">
         <v>46</v>
       </c>
-      <c r="E29" t="s">
-        <v>47</v>
-      </c>
       <c r="F29" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B30" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C30" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
+        <v>47</v>
+      </c>
+      <c r="E30" t="s">
         <v>48</v>
       </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C31" t="s">
+        <v>25</v>
+      </c>
+      <c r="D31" t="s">
         <v>26</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>27</v>
-      </c>
-      <c r="E31" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" t="s">
         <v>30</v>
-      </c>
-      <c r="E32" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" t="s">
+        <v>31</v>
+      </c>
+      <c r="E33" t="s">
         <v>32</v>
-      </c>
-      <c r="E33" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B34" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" t="s">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
         <v>34</v>
-      </c>
-      <c r="E34" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
         <v>36</v>
-      </c>
-      <c r="E35" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
         <v>38</v>
-      </c>
-      <c r="E36" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C37" t="s">
+        <v>39</v>
+      </c>
+      <c r="D37" t="s">
         <v>40</v>
       </c>
-      <c r="D37" t="s">
-        <v>41</v>
-      </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" t="s">
         <v>42</v>
-      </c>
-      <c r="E38" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
         <v>44</v>
-      </c>
-      <c r="E39" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
         <v>46</v>
-      </c>
-      <c r="E40" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B41" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
         <v>48</v>
-      </c>
-      <c r="E41" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
